--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T17:38:26+00:00</t>
+    <t>2022-05-18T18:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:03:18+00:00</t>
+    <t>2022-05-18T18:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:24:05+00:00</t>
+    <t>2022-05-18T18:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:38:41+00:00</t>
+    <t>2022-05-18T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:56:15+00:00</t>
+    <t>2022-05-18T19:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:09:53+00:00</t>
+    <t>2022-05-18T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:16:13+00:00</t>
+    <t>2022-05-18T19:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:30:31+00:00</t>
+    <t>2022-05-18T19:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:33:24+00:00</t>
+    <t>2022-05-19T03:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T03:16:26+00:00</t>
+    <t>2022-05-19T05:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:06:22+00:00</t>
+    <t>2022-05-19T05:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:30:54+00:00</t>
+    <t>2022-07-20T15:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:49:15+00:00</t>
+    <t>2022-07-20T15:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:55:58+00:00</t>
+    <t>2022-07-26T14:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T14:00:32+00:00</t>
+    <t>2022-11-10T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T16:33:20+00:00</t>
+    <t>2022-11-13T16:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-13T16:06:14+00:00</t>
+    <t>2022-11-16T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:22:04+00:00</t>
+    <t>2022-11-16T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:33:27+00:00</t>
+    <t>2022-12-09T19:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T19:20:55+00:00</t>
+    <t>2022-12-09T21:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T21:34:05+00:00</t>
+    <t>2023-01-23T16:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:13:19+00:00</t>
+    <t>2023-01-27T17:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T17:12:17+00:00</t>
+    <t>2023-01-30T21:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:30:05+00:00</t>
+    <t>2023-02-09T16:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Global Developmental Delay / Intellectual Deficiency (Trio)</t>
+  </si>
+  <si>
+    <t>RGDI+</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -596,6 +599,18 @@
       </c>
       <c r="D9" s="2"/>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T16:19:35+00:00</t>
+    <t>2023-02-14T19:15:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>RGDI+</t>
+  </si>
+  <si>
+    <t>POLYM</t>
+  </si>
+  <si>
+    <t>Polymalformation</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,6 +617,18 @@
       </c>
       <c r="D10" s="2"/>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T19:15:12+00:00</t>
+    <t>2023-02-20T18:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:51:53+00:00</t>
+    <t>2023-02-20T18:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:59:33+00:00</t>
+    <t>2023-02-20T19:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T19:32:51+00:00</t>
+    <t>2023-02-21T11:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:59:56+00:00</t>
+    <t>2023-02-21T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T12:43:59+00:00</t>
+    <t>2023-02-28T17:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T17:04:12+00:00</t>
+    <t>2023-03-09T16:02:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:02:20+00:00</t>
+    <t>2023-03-09T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:05:10+00:00</t>
+    <t>2023-03-09T21:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T21:27:23+00:00</t>
+    <t>2023-03-10T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:30:38+00:00</t>
+    <t>2023-03-10T16:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:37:58+00:00</t>
+    <t>2023-03-10T16:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:43:52+00:00</t>
+    <t>2023-03-16T01:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:14:24+00:00</t>
+    <t>2023-03-16T01:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:23:31+00:00</t>
+    <t>2023-03-21T11:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -187,6 +187,24 @@
   </si>
   <si>
     <t>Polymalformation</t>
+  </si>
+  <si>
+    <t>TRATU</t>
+  </si>
+  <si>
+    <t>Transcriptome</t>
+  </si>
+  <si>
+    <t>TUHEM</t>
+  </si>
+  <si>
+    <t>Hematological malignancies predisposition</t>
+  </si>
+  <si>
+    <t>TUPED</t>
+  </si>
+  <si>
+    <t>Pediatric cancer predisposition</t>
   </si>
 </sst>
 </file>
@@ -489,7 +507,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -629,6 +647,42 @@
       </c>
       <c r="D11" s="2"/>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T11:43:18+00:00</t>
+    <t>2023-04-04T14:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T14:29:08+00:00</t>
+    <t>2023-05-30T18:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -192,7 +192,7 @@
     <t>TRATU</t>
   </si>
   <si>
-    <t>Transcriptome</t>
+    <t>Tumoral Transcriptome</t>
   </si>
   <si>
     <t>TUHEM</t>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Pediatric cancer predisposition</t>
+  </si>
+  <si>
+    <t>EXTUM</t>
+  </si>
+  <si>
+    <t>Tumoral Exome</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -683,6 +689,18 @@
       </c>
       <c r="D14" s="2"/>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T18:28:01+00:00</t>
+    <t>2023-07-19T14:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -332,10 +332,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T14:01:19+00:00</t>
+    <t>2023-08-02T16:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>Tumoral Exome</t>
+  </si>
+  <si>
+    <t>SSOLID</t>
+  </si>
+  <si>
+    <t>Solid Tumor (somatic)</t>
+  </si>
+  <si>
+    <t>SHEMA</t>
+  </si>
+  <si>
+    <t>Leukemia (somatic)</t>
   </si>
 </sst>
 </file>
@@ -513,7 +525,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -701,6 +713,30 @@
       </c>
       <c r="D15" s="2"/>
     </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T16:54:26+00:00</t>
+    <t>2023-10-18T17:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:21:54+00:00</t>
+    <t>2023-11-09T20:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Leukemia (somatic)</t>
+  </si>
+  <si>
+    <t>SCID</t>
+  </si>
+  <si>
+    <t>Severe Combined Immune Deficiency</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,6 +743,18 @@
       </c>
       <c r="D17" s="2"/>
     </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:21:55+00:00</t>
+    <t>2023-11-27T16:21:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T16:21:02+00:00</t>
+    <t>2024-03-01T18:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T18:52:33+00:00</t>
+    <t>2024-03-19T14:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T14:09:21+00:00</t>
+    <t>2024-03-25T15:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:25:45+00:00</t>
+    <t>2024-03-28T12:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:52:30+00:00</t>
+    <t>2024-05-09T16:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:24:25+00:00</t>
+    <t>2024-05-09T16:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-request-code.xlsx
+++ b/ig/CodeSystem-analysis-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:30:56+00:00</t>
+    <t>2024-06-10T12:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,7 +135,7 @@
     <t>MMG</t>
   </si>
   <si>
-    <t>Global Muscular diseases (Global Panel)</t>
+    <t>Global Muscular Diseases</t>
   </si>
   <si>
     <t>DYSM</t>
@@ -177,7 +177,7 @@
     <t>RGDI</t>
   </si>
   <si>
-    <t>Global Developmental Delay / Intellectual Deficiency (Trio)</t>
+    <t>Global Developmental Delay / Intellectual Disability (Trio)</t>
   </si>
   <si>
     <t>RGDI+</t>
@@ -198,13 +198,13 @@
     <t>TUHEM</t>
   </si>
   <si>
-    <t>Hematological malignancies predisposition</t>
+    <t>Hematological Malignancies Predisposition</t>
   </si>
   <si>
     <t>TUPED</t>
   </si>
   <si>
-    <t>Pediatric cancer predisposition</t>
+    <t>Pediatric Cancer Predisposition</t>
   </si>
   <si>
     <t>EXTUM</t>
@@ -216,13 +216,13 @@
     <t>SSOLID</t>
   </si>
   <si>
-    <t>Solid Tumor (somatic)</t>
+    <t>Solid Tumor (Somatic)</t>
   </si>
   <si>
     <t>SHEMA</t>
   </si>
   <si>
-    <t>Leukemia (somatic)</t>
+    <t>Leukemia (Somatic)</t>
   </si>
   <si>
     <t>SCID</t>
